--- a/data/trans_camb/POLIPATOLOGIA_5-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_5-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02579478063628079</v>
+        <v>-0.05054698100537623</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3692989683799401</v>
+        <v>-0.6385553492589764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.37322762473813</v>
+        <v>10.57848291840243</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.216223690433607</v>
+        <v>3.803839310702789</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.953228043744126</v>
+        <v>4.824264715476733</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>20.93378948794872</v>
+        <v>21.13399504120423</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.204620078839716</v>
+        <v>3.258137519603127</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.212422852938869</v>
+        <v>3.18508281824459</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>17.63255954713169</v>
+        <v>17.39719656553388</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.215929917695467</v>
+        <v>5.128792118856594</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.792507995311002</v>
+        <v>4.369271323248975</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.26824623953902</v>
+        <v>17.50033110994755</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.786306452972321</v>
+        <v>9.600274979447967</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.467925286383</v>
+        <v>11.30040887949383</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>27.3808890470544</v>
+        <v>27.60825037620181</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.151130349623094</v>
+        <v>7.263380027921225</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.654272783555752</v>
+        <v>7.798448284760441</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>22.3107132628826</v>
+        <v>22.41979593749758</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.5253114282116876</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.897473142628586</v>
+        <v>1.897473142628585</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.003195154127563523</v>
+        <v>-0.0179197123697844</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.05228561746642024</v>
+        <v>-0.0745767209657924</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.255185838942803</v>
+        <v>1.27904880629115</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2826034488286653</v>
+        <v>0.2570230060969693</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3394162578870593</v>
+        <v>0.3416621059307942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.434249092079856</v>
+        <v>1.444696566122045</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2833813748915052</v>
+        <v>0.2766129235236559</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2862472086933148</v>
+        <v>0.2900781263893588</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.537005728992908</v>
+        <v>1.535627847415902</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8301264260040787</v>
+        <v>0.8229750295155076</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7821002664002028</v>
+        <v>0.6977210963880452</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.755763285526743</v>
+        <v>2.804709011151257</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8273094641471036</v>
+        <v>0.8145116819869824</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9579723489339583</v>
+        <v>0.9587004440846072</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.317346267013735</v>
+        <v>2.328655122006392</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7396379293873357</v>
+        <v>0.7311743123020015</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8017621857511024</v>
+        <v>0.8125510464725116</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.34318544264135</v>
+        <v>2.391871365970105</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>3.057195727017162</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.275136170138087</v>
+        <v>8.275136170138085</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.4127023580842888</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8096379440061162</v>
+        <v>-0.8802119859977886</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5006587703570247</v>
+        <v>-0.552389488088419</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.869038609549173</v>
+        <v>3.879175389002182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3664086690162588</v>
+        <v>-0.200869968633719</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.597982938499772</v>
+        <v>1.657349050461996</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.912024662108827</v>
+        <v>6.961088311601737</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.4309379242748178</v>
+        <v>-0.3165314582771651</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.899999693895185</v>
+        <v>0.8319547523994476</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.744793903351321</v>
+        <v>5.658027148431573</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7433293718493849</v>
+        <v>0.6405599043510252</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.288957631722297</v>
+        <v>1.150241943601458</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.17088701647946</v>
+        <v>6.139154355383448</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.288076189210401</v>
+        <v>2.521110703924868</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.41530802019414</v>
+        <v>4.428335502689132</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.595081510208054</v>
+        <v>9.664555237613145</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.109478299195134</v>
+        <v>1.20978930772048</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.544184367786253</v>
+        <v>2.525192736239018</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.489445882686294</v>
+        <v>7.510520394257106</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>1.067378937346181</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>2.889152949423626</v>
+        <v>2.889152949423625</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1906490891513163</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4327627205122836</v>
+        <v>-0.4584746550787132</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2587772828899902</v>
+        <v>-0.2825507675161176</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.829978418632675</v>
+        <v>1.879301775417469</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1425961501113043</v>
+        <v>-0.06339176931591546</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4190096241454866</v>
+        <v>0.4589197402441114</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.807456707701689</v>
+        <v>1.83637786717894</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1632688100854081</v>
+        <v>-0.1214592087619707</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.336084873270953</v>
+        <v>0.3233704257872659</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2.166293694426976</v>
+        <v>2.164271752627031</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.769994319535146</v>
+        <v>0.5644919460488805</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.294654181603872</v>
+        <v>1.044645439702777</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5.984701475851434</v>
+        <v>5.719063442194896</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9695863197678337</v>
+        <v>1.096725594571395</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.907178086318785</v>
+        <v>1.985862719402426</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.278177137877052</v>
+        <v>4.317083900794573</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6551902657742245</v>
+        <v>0.6921632069816583</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.456805118223648</v>
+        <v>1.482447054573423</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4.225675564600965</v>
+        <v>4.204952567342336</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>1.39439396963897</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.760525375845584</v>
+        <v>6.760525375845583</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.3563747262684061</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.657674945240615</v>
+        <v>-2.558594742689096</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.941450444622381</v>
+        <v>-1.721806542033058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.156769073065875</v>
+        <v>0.203370173488446</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.4325931961107335</v>
+        <v>-0.4567618433413193</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.4534874051814757</v>
+        <v>-0.6450648219604759</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.569859509244155</v>
+        <v>4.314354945067669</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.045738783348333</v>
+        <v>-0.949489258601521</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.7690546229243092</v>
+        <v>-0.7251427503145956</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.992991330582834</v>
+        <v>2.920296648902196</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.054432155530917</v>
+        <v>1.12757282936669</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.703506722659817</v>
+        <v>1.707248199604829</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.712915300798891</v>
+        <v>3.762208534794404</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.860420405420786</v>
+        <v>3.944560406688708</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.511077678840747</v>
+        <v>3.506946586704212</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.589387162751041</v>
+        <v>8.810084096011497</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.79235771161945</v>
+        <v>1.752507754271726</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.971365942321677</v>
+        <v>2.011482465472916</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.773987159921702</v>
+        <v>5.880538550387073</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.7904323704791134</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3.832301497902635</v>
+        <v>3.832301497902634</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1817411219784188</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8784480736841889</v>
+        <v>-0.8908884667622982</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6986648800760679</v>
+        <v>-0.6221224069167992</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.01349262100458618</v>
+        <v>0.02767089285126686</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2267825733563901</v>
+        <v>-0.3151492741033824</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.265026581089519</v>
+        <v>-0.3343876106049725</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.43141246320533</v>
+        <v>1.257894916043969</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4131340762256628</v>
+        <v>-0.3924440351446642</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3100665541601604</v>
+        <v>-0.3083256085322241</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.9443845445918498</v>
+        <v>0.9342071879246714</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.433429484901463</v>
+        <v>1.068915817280159</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.44027380899077</v>
+        <v>1.533879757742842</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.936805398491384</v>
+        <v>2.999152734072184</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.869531801584627</v>
+        <v>3.807736217447821</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.741836587042787</v>
+        <v>3.281216810254294</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>9.426713088275068</v>
+        <v>10.32327705127342</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.41009903819811</v>
+        <v>1.297490885302031</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.529777473475033</v>
+        <v>1.538902208410868</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>4.410550283852528</v>
+        <v>4.578585002494173</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>3.096208954726841</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.68506090149539</v>
+        <v>9.685060901495394</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.810869002990677</v>
@@ -1306,7 +1306,7 @@
         <v>1.654859904252758</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>7.419665497363377</v>
+        <v>7.41966549736338</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4791348009111996</v>
+        <v>-0.4720272497945253</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.7862538798527984</v>
+        <v>-0.7088968944071121</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.991143226671248</v>
+        <v>4.044985121541568</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.811867917923173</v>
+        <v>1.874795310554077</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.756769418738298</v>
+        <v>1.742930775403133</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.31040360188484</v>
+        <v>8.253829209325971</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9765310607621003</v>
+        <v>0.9793491302641762</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7767322818887386</v>
+        <v>0.8228938713742723</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.56608426600979</v>
+        <v>6.588065915798875</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.365541674657806</v>
+        <v>1.346475557293057</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9681108943155199</v>
+        <v>1.033950753833101</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.111259186730078</v>
+        <v>6.1548563151497</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.447466020287322</v>
+        <v>4.47368699421169</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.496792370161415</v>
+        <v>4.553691792186513</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.02327031091924</v>
+        <v>10.90032184918716</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.585770667185106</v>
+        <v>2.646272364621566</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.477227433347745</v>
+        <v>2.467242579548</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.31558883124481</v>
+        <v>8.308579028343633</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.4618297926820278</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.444621384943007</v>
+        <v>1.444621384943008</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3561808471040665</v>
@@ -1411,7 +1411,7 @@
         <v>0.3254953293484235</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.459378197823903</v>
+        <v>1.459378197823904</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1279144736476753</v>
+        <v>-0.1242522018599884</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2016829037551648</v>
+        <v>-0.191442375481579</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.027090974764029</v>
+        <v>1.024793698859942</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2539756099853741</v>
+        <v>0.2526686766104695</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2323658714134673</v>
+        <v>0.231030954681999</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.092504805973019</v>
+        <v>1.105304008859652</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1729237137400398</v>
+        <v>0.1812272025083841</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1430545677061725</v>
+        <v>0.1514579846236534</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.180875033816087</v>
+        <v>1.182378262626018</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.469002961209885</v>
+        <v>0.4596681793554993</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3256048587501723</v>
+        <v>0.347041773689218</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.091845190053931</v>
+        <v>2.08526892989501</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7353111646208005</v>
+        <v>0.7417469289877534</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7263310914461618</v>
+        <v>0.7349451210441187</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.808580639989605</v>
+        <v>1.818184133490783</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5501288202313385</v>
+        <v>0.564071468691396</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.527094490432491</v>
+        <v>0.5199962770274091</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.783793032443303</v>
+        <v>1.793026698567329</v>
       </c>
     </row>
     <row r="28">
